--- a/biology/Zoologie/Babiroussa_des_Célèbes/Babiroussa_des_Célèbes.xlsx
+++ b/biology/Zoologie/Babiroussa_des_Célèbes/Babiroussa_des_Célèbes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Babiroussa_des_C%C3%A9l%C3%A8bes</t>
+          <t>Babiroussa_des_Célèbes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Babyrousa celebensis
-Le Babiroussa des Célèbes[1] (Babyrousa celebensis ou Babyrousa babyrussa celebensis) est une espèce de suidés.
+Le Babiroussa des Célèbes (Babyrousa celebensis ou Babyrousa babyrussa celebensis) est une espèce de suidés.
 Dans l'île voisine, Togian, vit une autre espèce, le babiroussa de l'île Togian (Babyrousa togeanensis ou Babyrousa babyrussa togeanensis).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Babiroussa_des_C%C3%A9l%C3%A8bes</t>
+          <t>Babiroussa_des_Célèbes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient du malais, babi (« porc ») et rusa (« cerf ») et de « Célèbes », l'ancien nom de Sulawesi.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Babiroussa_des_C%C3%A9l%C3%A8bes</t>
+          <t>Babiroussa_des_Célèbes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme son nom vernaculaire l'indique, cette espèce est endémique de Célèbes.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Babiroussa_des_C%C3%A9l%C3%A8bes</t>
+          <t>Babiroussa_des_Célèbes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Babyrousa celebensis a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Babyrousa celebensis a pour synonymes :
 Babirussa celebensis Deninger, 1909
 Babyrousa babyrussa subsp. celebensis (Deninger, 1909)
 Babyrousa babyrussa subsp. merkusi De Beaufort, 1964
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Babiroussa_des_C%C3%A9l%C3%A8bes</t>
+          <t>Babiroussa_des_Célèbes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Deninger, 1909 : Über Babirusa Berichte der Naturforschen den Gesellschaft zu Freiburg 18 p. 1-22.</t>
         </is>
